--- a/biology/Botanique/Ludovic_Winter/Ludovic_Winter.xlsx
+++ b/biology/Botanique/Ludovic_Winter/Ludovic_Winter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludovic (ou Ludwig) Winter est un paysagiste badois né à Heidelberg dans le grand-duché de Bade et mort à Mannheim (9 août 1846 – 12 juillet 1912).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a exercé son activité essentiellement en Italie au XIXe siècle, sur la Riviera ligure. Il s'y est rendu célèbre comme paysagiste, pépiniériste et jardinier en travaillant d'abord chez Charles Huber.
 C'est lui en particulier qui introduisit les palmiers à grandes palmes dans la région d'où il essaimèrent dans toute la région.
@@ -547,9 +561,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> : il est fait[Quand ?] chevalier de l'ordre de la Couronne d'Italie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> : il est fait[Quand ?] chevalier de l'ordre de la Couronne d'Italie.
 </t>
         </is>
       </c>
@@ -578,11 +594,13 @@
           <t>Jardins et parcs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il subsiste plusieurs jardins qui portent la trace de Ludovic Winter :
 Jardin botanique Hanbury à la Mortola
-Jardins Winter à Bordighera[2]
+Jardins Winter à Bordighera
 les jardins de Villa Bischoffsheim ou Villa Etelinda, Bordighera
 Les jardins de Villa Garnier, Bordighera
 les jardins de Villa Margherita, Bordighera
@@ -615,7 +633,9 @@
           <t>Sélection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hybrides que l'on doit à Ludovic Winter :
 Acacia ×deneufvillei ;
